--- a/exsel_s.xlsx
+++ b/exsel_s.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>*10:45</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>**12:55</t>
-  </si>
-  <si>
-    <t>*13:05</t>
   </si>
   <si>
     <t>**14:30</t>
@@ -36,19 +30,16 @@
     <t>**15:05</t>
   </si>
   <si>
-    <t>*13:15</t>
-  </si>
-  <si>
-    <t>*22:15</t>
-  </si>
-  <si>
     <t>**23:05</t>
   </si>
   <si>
-    <t>*23:15</t>
+    <t>**0:05</t>
   </si>
   <si>
-    <t>**0:05</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>ot</t>
   </si>
 </sst>
 </file>
@@ -367,624 +358,632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.28472222222222221</v>
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.27777777777777779</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="B2" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.28472222222222221</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.28472222222222221</v>
+        <v>0.3125</v>
       </c>
       <c r="B3" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.2951388888888889</v>
+        <v>0.35416666666666702</v>
       </c>
       <c r="B4" s="1">
-        <v>0.30902777777777779</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.2986111111111111</v>
+        <v>0.39583333333333298</v>
       </c>
       <c r="B5" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.30902777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.30555555555555552</v>
+        <v>0.4375</v>
       </c>
       <c r="B6" s="1">
-        <v>0.31944444444444448</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.31597222222222221</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="B7" s="1">
-        <v>0.3298611111111111</v>
+        <v>0.31944444444444448</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.31944444444444448</v>
+        <v>0.52083333333333304</v>
       </c>
       <c r="B8" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="B9" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.60416666666666696</v>
       </c>
       <c r="B10" s="1">
-        <v>0.34722222222222227</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.33680555555555558</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="B11" s="1">
-        <v>0.35069444444444442</v>
+        <v>0.34722222222222227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.34027777777777773</v>
+        <v>0.6875</v>
       </c>
       <c r="B12" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.35069444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.375</v>
+        <v>0.72916666666666696</v>
       </c>
       <c r="B13" s="1">
-        <v>0.3888888888888889</v>
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.37986111111111115</v>
+        <v>0.77083333333333304</v>
       </c>
       <c r="B14" s="1">
-        <v>0.39374999999999999</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.8125</v>
       </c>
       <c r="B15" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.39374999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.40277777777777773</v>
+        <v>0.85416666666666696</v>
       </c>
       <c r="B16" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="B17" s="1">
-        <v>0.44097222222222227</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.9375</v>
       </c>
       <c r="B18" s="1">
-        <v>0.44444444444444442</v>
+        <v>0.44097222222222227</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.43402777777777773</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="B19" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.4375</v>
+        <v>1.0208333333333299</v>
       </c>
       <c r="B20" s="1">
-        <v>0.4513888888888889</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.44097222222222227</v>
+        <v>1.0625</v>
       </c>
       <c r="B21" s="1">
-        <v>0.4548611111111111</v>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.44444444444444442</v>
+        <v>1.1041666666666701</v>
       </c>
       <c r="B22" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1.1458333333333299</v>
+      </c>
+      <c r="B23" s="1">
         <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.50694444444444442</v>
+        <v>1.1875</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.49652777777777773</v>
+        <v>1.2291666666666701</v>
       </c>
       <c r="B25" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.49861111111111112</v>
+        <v>1.2708333333333299</v>
       </c>
       <c r="B26" s="1">
-        <v>0.51388888888888895</v>
+        <v>0.51041666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.50347222222222221</v>
+        <v>1.3125</v>
       </c>
       <c r="B27" s="1">
-        <v>0.51736111111111105</v>
+        <v>0.51388888888888895</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0.52777777777777779</v>
+        <v>1.3541666666666701</v>
       </c>
       <c r="B28" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.51736111111111105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>0.53819444444444442</v>
+        <v>1.3958333333333299</v>
       </c>
       <c r="B29" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1.4375</v>
+      </c>
+      <c r="B30" s="1">
         <v>0.55208333333333337</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
+      <c r="A31" s="1">
+        <v>1.4791666666666701</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.59166666666666667</v>
+        <v>1.5208333333333299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.59027777777777779</v>
+        <v>1.5625</v>
       </c>
       <c r="B33" s="1">
-        <v>0.60347222222222219</v>
+        <v>0.59166666666666667</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>0.59722222222222221</v>
+        <v>1.6041666666666701</v>
       </c>
       <c r="B34" s="1">
-        <v>0.61388888888888882</v>
+        <v>0.60347222222222219</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>0.61458333333333337</v>
+        <v>1.6458333333333299</v>
       </c>
       <c r="B35" s="1">
-        <v>0.62847222222222221</v>
+        <v>0.61388888888888882</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0.625</v>
+        <v>1.6875</v>
       </c>
       <c r="B36" s="1">
-        <v>0.6381944444444444</v>
+        <v>0.62847222222222221</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0.63541666666666663</v>
+        <v>1.7291666666666701</v>
       </c>
       <c r="B37" s="1">
-        <v>0.65</v>
+        <v>0.6381944444444444</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0.65277777777777779</v>
+        <v>1.7708333333333299</v>
       </c>
       <c r="B38" s="1">
-        <v>0.66805555555555562</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0.67013888888888884</v>
+        <v>1.8125</v>
       </c>
       <c r="B39" s="1">
-        <v>0.68472222222222223</v>
+        <v>0.66805555555555562</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>0.68402777777777779</v>
+        <v>1.8541666666666701</v>
       </c>
       <c r="B40" s="1">
-        <v>0.69652777777777775</v>
+        <v>0.68472222222222223</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>0.70138888888888884</v>
+        <v>1.8958333333333299</v>
       </c>
       <c r="B41" s="1">
-        <v>0.71319444444444446</v>
+        <v>0.69652777777777775</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>0.71180555555555547</v>
+        <v>1.9375</v>
       </c>
       <c r="B42" s="1">
-        <v>0.72569444444444453</v>
+        <v>0.71319444444444446</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>0.71527777777777779</v>
+        <v>1.9791666666666701</v>
       </c>
       <c r="B43" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.72569444444444453</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>0.72569444444444453</v>
+        <v>2.0208333333333299</v>
       </c>
       <c r="B44" s="1">
-        <v>0.73888888888888893</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0.73958333333333337</v>
+        <v>2.0625</v>
       </c>
       <c r="B45" s="1">
-        <v>0.75486111111111109</v>
+        <v>0.73888888888888893</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0.75</v>
+        <v>2.1041666666666701</v>
       </c>
       <c r="B46" s="1">
-        <v>0.76388888888888884</v>
+        <v>0.75486111111111109</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>0.76041666666666663</v>
+        <v>2.1458333333333299</v>
       </c>
       <c r="B47" s="1">
-        <v>0.77430555555555547</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>0.77083333333333337</v>
+        <v>2.1875</v>
       </c>
       <c r="B48" s="1">
-        <v>0.78472222222222221</v>
+        <v>0.77430555555555547</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>0.77777777777777779</v>
+        <v>2.2291666666666701</v>
       </c>
       <c r="B49" s="1">
-        <v>0.79305555555555562</v>
+        <v>0.78472222222222221</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>0.79166666666666663</v>
+        <v>2.2708333333333299</v>
       </c>
       <c r="B50" s="1">
-        <v>0.8041666666666667</v>
+        <v>0.79305555555555562</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0.79513888888888884</v>
+        <v>2.3125</v>
       </c>
       <c r="B51" s="1">
-        <v>0.80763888888888891</v>
+        <v>0.8041666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0.79999999999999993</v>
+        <v>2.3541666666666701</v>
       </c>
       <c r="B52" s="1">
-        <v>0.81388888888888899</v>
+        <v>0.80763888888888891</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0.80902777777777779</v>
+        <v>2.3958333333333299</v>
       </c>
       <c r="B53" s="1">
-        <v>0.82361111111111107</v>
+        <v>0.81388888888888899</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0.8125</v>
+        <v>2.4375</v>
       </c>
       <c r="B54" s="1">
-        <v>0.82708333333333339</v>
+        <v>0.82361111111111107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0.81944444444444453</v>
+        <v>2.4791666666666701</v>
       </c>
       <c r="B55" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.82708333333333339</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>0.82986111111111116</v>
+        <v>2.5208333333333299</v>
       </c>
       <c r="B56" s="1">
-        <v>0.84375</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>0.84027777777777779</v>
+        <v>2.5625</v>
       </c>
       <c r="B57" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>0.85069444444444453</v>
+        <v>2.6041666666666701</v>
       </c>
       <c r="B58" s="1">
-        <v>0.8652777777777777</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>0.85416666666666663</v>
+        <v>2.6458333333333299</v>
       </c>
       <c r="B59" s="1">
-        <v>0.86805555555555547</v>
+        <v>0.8652777777777777</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0.86111111111111116</v>
+        <v>2.6875</v>
       </c>
       <c r="B60" s="1">
-        <v>0.87430555555555556</v>
+        <v>0.86805555555555547</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>0.86805555555555547</v>
+        <v>2.7291666666666701</v>
       </c>
       <c r="B61" s="1">
-        <v>0.88124999999999998</v>
+        <v>0.87430555555555556</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>0.87152777777777779</v>
+        <v>2.7708333333333299</v>
       </c>
       <c r="B62" s="1">
-        <v>0.88611111111111107</v>
+        <v>0.88124999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>0.87847222222222221</v>
+        <v>2.8125</v>
       </c>
       <c r="B63" s="1">
-        <v>0.89097222222222217</v>
+        <v>0.88611111111111107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>0.88194444444444453</v>
+        <v>2.8541666666666701</v>
       </c>
       <c r="B64" s="1">
-        <v>0.89374999999999993</v>
+        <v>0.89097222222222217</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>0.88888888888888884</v>
+        <v>2.8958333333333299</v>
       </c>
       <c r="B65" s="1">
-        <v>0.90277777777777779</v>
+        <v>0.89374999999999993</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>0.90625</v>
+        <v>2.9375</v>
       </c>
       <c r="B66" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.90277777777777779</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>0.90763888888888899</v>
+        <v>2.9791666666666701</v>
       </c>
       <c r="B67" s="1">
-        <v>0.92152777777777783</v>
+        <v>0.92013888888888884</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>0.92013888888888884</v>
+        <v>3.0208333333333299</v>
       </c>
       <c r="B68" s="1">
+        <v>0.92152777777777783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3.0625</v>
+      </c>
+      <c r="B69" s="1">
         <v>0.93194444444444446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0.95624999999999993</v>
+        <v>3.1041666666666701</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>0.95138888888888884</v>
+        <v>3.1458333333333299</v>
       </c>
       <c r="B71" s="1">
-        <v>0.96319444444444446</v>
+        <v>0.95624999999999993</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>0.96180555555555547</v>
+        <v>3.1875</v>
       </c>
       <c r="B72" s="1">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3.2291666666666701</v>
+      </c>
+      <c r="B73" s="1">
         <v>0.97638888888888886</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>0.97013888888888899</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.9819444444444444</v>
+        <v>3.2708333333333299</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>0.97569444444444453</v>
+        <v>3.3125</v>
       </c>
       <c r="B75" s="1">
-        <v>0.98888888888888893</v>
+        <v>0.9819444444444444</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>0.99305555555555547</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B76" s="1">
+        <v>0.98888888888888893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B77" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
         <v>4.6527777777777779E-2</v>
       </c>
     </row>

--- a/exsel_s.xlsx
+++ b/exsel_s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>**12:55</t>
   </si>
@@ -57,18 +57,6 @@
     <t>18:00</t>
   </si>
   <si>
-    <t>18:15</t>
-  </si>
-  <si>
-    <t>18:40</t>
-  </si>
-  <si>
-    <t>19:25</t>
-  </si>
-  <si>
-    <t>20:55</t>
-  </si>
-  <si>
     <t>15:15</t>
   </si>
   <si>
@@ -78,25 +66,10 @@
     <t>*22:15</t>
   </si>
   <si>
-    <t>*23:15</t>
-  </si>
-  <si>
-    <t>18:20</t>
-  </si>
-  <si>
-    <t>19:46</t>
-  </si>
-  <si>
-    <t>21:16</t>
-  </si>
-  <si>
-    <t>22:57</t>
-  </si>
-  <si>
     <t>23:07</t>
   </si>
   <si>
-    <t>23:44</t>
+    <t>*23:20</t>
   </si>
 </sst>
 </file>
@@ -106,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +94,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -261,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -300,6 +281,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,23 +584,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>0.27083333333333298</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="B2" s="5">
-        <v>0.28472222222222221</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>0.27777777777777801</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="B3" s="6">
-        <v>0.29166666666666669</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>0.28472222222222204</v>
+        <v>0.2951388888888889</v>
       </c>
       <c r="B4" s="6">
         <v>0.2986111111111111</v>
@@ -624,31 +608,31 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>0.29513888888888901</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="B5" s="6">
-        <v>0.30902777777777779</v>
+        <v>0.31597222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>0.29861111111111099</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="B6" s="6">
-        <v>0.3125</v>
+        <v>0.31944444444444448</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>0.30555555555555508</v>
+        <v>0.3125</v>
       </c>
       <c r="B7" s="6">
-        <v>0.31944444444444448</v>
+        <v>0.3263888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>0.31597222222222204</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="B8" s="6">
         <v>0.3298611111111111</v>
@@ -656,7 +640,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>0.31944444444444403</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="B9" s="6">
         <v>0.33333333333333331</v>
@@ -672,7 +656,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>0.33333333333333331</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="B11" s="6">
         <v>0.34722222222222227</v>
@@ -680,7 +664,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>0.33680555555555564</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B12" s="6">
         <v>0.35069444444444442</v>
@@ -688,7 +672,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>0.34027777777777773</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="B13" s="6">
         <v>0.35416666666666669</v>
@@ -696,7 +680,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>0.375</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="B14" s="6">
         <v>0.3888888888888889</v>
@@ -704,7 +688,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>0.3798611111111112</v>
+        <v>0.34375</v>
       </c>
       <c r="B15" s="6">
         <v>0.39374999999999999</v>
@@ -712,7 +696,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>0.38194444444444442</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="B16" s="6">
         <v>0.39583333333333331</v>
@@ -720,7 +704,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>0.40277777777777801</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="B17" s="6">
         <v>0.41666666666666669</v>
@@ -728,7 +712,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>0.42708333333333331</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="B18" s="6">
         <v>0.44097222222222227</v>
@@ -736,7 +720,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>0.43055555555555602</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="B19" s="6">
         <v>0.44444444444444442</v>
@@ -744,120 +728,120 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>0.43402777777777801</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="B20" s="6">
         <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>0.4375</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.4513888888888889</v>
+      <c r="A21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>0.44097222222222238</v>
+        <v>0.46875</v>
       </c>
       <c r="B22" s="6">
-        <v>0.4548611111111111</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>0.44444444444444403</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="B23" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>0</v>
+      <c r="A24" s="12">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.50486111111111109</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>0.49305555555555602</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="B25" s="6">
-        <v>0.50694444444444442</v>
+        <v>0.52222222222222225</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>0.49652777777777801</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="B26" s="7">
-        <v>0.51041666666666696</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>0.49861111111111117</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="B27" s="7">
-        <v>0.51388888888888895</v>
+        <v>0.55208333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>0.50347222222222232</v>
-      </c>
-      <c r="B28" s="7">
-        <v>0.51736111111111116</v>
+      <c r="A28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>0.52777777777777779</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="B29" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.55208333333333337</v>
+      <c r="A30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>1</v>
+      <c r="A31" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>2</v>
+      <c r="A32" s="12">
+        <v>0.59375</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.60763888888888895</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>0.57638888888888895</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="B33" s="7">
-        <v>0.59166666666666667</v>
+        <v>0.61458333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>0.59027777777777779</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="B34" s="8">
         <v>0.60347222222222219</v>
@@ -876,7 +860,7 @@
         <v>0.61458333333333304</v>
       </c>
       <c r="B36" s="8">
-        <v>0.62847222222222232</v>
+        <v>0.62847222222222221</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,26 +873,26 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>0.65277777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B39" s="7">
-        <v>0.66805555555555562</v>
+        <v>0.66111111111111109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>0.67013888888888884</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="B40" s="7">
-        <v>0.68472222222222234</v>
+        <v>0.67708333333333337</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,39 +900,39 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="B41" s="7">
-        <v>0.69652777777777786</v>
+        <v>0.69861111111111107</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>0.70138888888888906</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="B42" s="7">
-        <v>0.71319444444444502</v>
+        <v>0.7104166666666667</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>0.71180555555555547</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="B43" s="7">
-        <v>0.72569444444444453</v>
+        <v>0.72777777777777775</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
-        <v>0.71527777777777801</v>
+        <v>0.71875</v>
       </c>
       <c r="B44" s="7">
-        <v>0.72916666666666696</v>
+        <v>0.73333333333333339</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>0.72569444444444386</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="B45" s="7">
-        <v>0.73888888888888904</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,87 +940,87 @@
         <v>10</v>
       </c>
       <c r="B46" s="7">
-        <v>0.75486111111111109</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>20</v>
+      <c r="B47" s="7">
+        <v>0.76180555555555562</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>12</v>
+      <c r="A48" s="12">
+        <v>0.75347222222222221</v>
       </c>
       <c r="B48" s="7">
-        <v>0.77430555555555547</v>
+        <v>0.7680555555555556</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>0.77083333333333304</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="B49" s="7">
-        <v>0.78472222222222221</v>
+        <v>0.77430555555555547</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>13</v>
+      <c r="A50" s="12">
+        <v>0.77083333333333337</v>
       </c>
       <c r="B50" s="7">
-        <v>0.79305555555555585</v>
+        <v>0.78263888888888899</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>0.79166666666666663</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="B51" s="7">
-        <v>0.8041666666666667</v>
+        <v>0.79236111111111107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>0.79513888888888884</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="B52" s="7">
-        <v>0.80763888888888891</v>
+        <v>0.8027777777777777</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>0.8</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="B53" s="7">
-        <v>0.81388888888888922</v>
+        <v>0.81111111111111101</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>21</v>
+      <c r="A54" s="12">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.82152777777777775</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>0.8125</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="B55" s="7">
-        <v>0.8270833333333335</v>
+        <v>0.83194444444444438</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>0.81944444444444453</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="B56" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,23 +1028,23 @@
         <v>0.82986111111111105</v>
       </c>
       <c r="B57" s="7">
-        <v>0.84375000000000011</v>
+        <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
-        <v>0.84027777777777801</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="B58" s="7">
-        <v>0.85416666666666663</v>
+        <v>0.85138888888888886</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
-        <v>0.85069444444444453</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="B59" s="7">
-        <v>0.8652777777777777</v>
+        <v>0.8618055555555556</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,40 +1052,40 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B60" s="7">
-        <v>0.86805555555555547</v>
+        <v>0.86875000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
-        <v>0.86111111111111105</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="B61" s="7">
-        <v>0.87430555555555556</v>
+        <v>0.87291666666666667</v>
       </c>
       <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <v>0.86805555555555547</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="B62" s="9">
-        <v>0.88124999999999998</v>
+        <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
+      <c r="A63" s="14">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
-        <v>0.87847222222222232</v>
+        <v>0.875</v>
       </c>
       <c r="B64" s="1">
-        <v>0.89097222222222217</v>
+        <v>0.88750000000000007</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1109,7 +1093,7 @@
         <v>0.88194444444444453</v>
       </c>
       <c r="B65" s="1">
-        <v>0.89374999999999993</v>
+        <v>0.89513888888888893</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,15 +1109,15 @@
         <v>0.90625000000000011</v>
       </c>
       <c r="B67" s="1">
-        <v>0.92013888888888884</v>
+        <v>0.91875000000000007</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
-        <v>0.90763888888888899</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B68" s="1">
-        <v>0.92152777777777783</v>
+        <v>0.93402777777777779</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,7 +1130,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3</v>
@@ -1154,10 +1138,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
-        <v>0.9444444444444442</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>23</v>
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.95486111111111116</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1165,20 +1149,20 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
-        <v>0.96180555555555547</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.97638888888888886</v>
+      <c r="A73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>19</v>
+      <c r="A74" s="14">
+        <v>0.97569444444444453</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>4</v>
@@ -1186,35 +1170,33 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
-        <v>0.97013888888888899</v>
+        <v>0.97569444444444453</v>
       </c>
       <c r="B75" s="17">
-        <v>0.9819444444444444</v>
+        <v>0.98819444444444438</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
-        <v>0.97569444444444453</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>25</v>
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0.99513888888888891</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16">
-        <v>0.99305555555555602</v>
-      </c>
+      <c r="A77" s="16"/>
       <c r="B77" s="17">
-        <v>8.333333333333335E-3</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="15">
-        <v>4.6527777777777779E-2</v>
+        <v>5.6250000000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">

--- a/exsel_s.xlsx
+++ b/exsel_s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>**12:55</t>
-  </si>
-  <si>
-    <t>**14:30</t>
-  </si>
-  <si>
-    <t>**15:05</t>
-  </si>
-  <si>
-    <t>**23:05</t>
-  </si>
-  <si>
-    <t>**0:05</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>t</t>
   </si>
@@ -70,6 +55,21 @@
   </si>
   <si>
     <t>*23:20</t>
+  </si>
+  <si>
+    <t>*0:05</t>
+  </si>
+  <si>
+    <t>*23:05</t>
+  </si>
+  <si>
+    <t>*12:55</t>
+  </si>
+  <si>
+    <t>*14:30</t>
+  </si>
+  <si>
+    <t>*15:05</t>
   </si>
 </sst>
 </file>
@@ -79,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +94,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -123,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -131,160 +123,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,512 +422,512 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.2986111111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.3263888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.3298611111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.32291666666666707</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.33680555555555558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.39374999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.50486111111111109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.52222222222222225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.55208333333333337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.60763888888888895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.61458333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.60347222222222219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.61388888888888882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.6381944444444444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.66111111111111109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.67708333333333337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.69861111111111107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.7104166666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.72777777777777775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.73958333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B46" s="1">
+        <v>0.75347222222222221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>0.28472222222222221</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.2986111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>0.2951388888888889</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.2986111111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.31597222222222221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>0.30555555555555552</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.31944444444444448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>0.3125</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.3263888888888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>0.31944444444444448</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.3298611111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>0.32291666666666707</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.33680555555555558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.34722222222222227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.35069444444444442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0.35416666666666669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>0.34375</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.39374999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>0.36805555555555558</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.44097222222222227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0.44791666666666669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>0.46875</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0.4826388888888889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>0.4909722222222222</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.50486111111111109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0.52222222222222225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="B27" s="7">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="B29" s="7">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B31" s="7">
-        <v>0.59722222222222221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>0.59375</v>
-      </c>
-      <c r="B32" s="7">
-        <v>0.60763888888888895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="B33" s="7">
-        <v>0.61458333333333337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="B34" s="8">
-        <v>0.60347222222222219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0.61388888888888882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B36" s="8">
-        <v>0.62847222222222221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>0.625</v>
-      </c>
-      <c r="B37" s="7">
-        <v>0.6381944444444444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0.66111111111111109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
-        <v>0.66319444444444442</v>
-      </c>
-      <c r="B40" s="7">
-        <v>0.67708333333333337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>0.68402777777777779</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.69861111111111107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="B42" s="7">
-        <v>0.7104166666666667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0.72777777777777775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>0.71875</v>
-      </c>
-      <c r="B44" s="7">
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="B45" s="7">
-        <v>0.73958333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="B47" s="1">
+        <v>0.76180555555555562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>0.75347222222222221</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="7">
-        <v>0.76180555555555562</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>0.75347222222222221</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="B48" s="1">
         <v>0.7680555555555556</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="3">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="1">
         <v>0.77430555555555547</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="3">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="1">
         <v>0.78263888888888899</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="3">
         <v>0.77777777777777779</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="1">
         <v>0.79236111111111107</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="3">
         <v>0.78819444444444453</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="1">
         <v>0.8027777777777777</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="3">
         <v>0.79513888888888884</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="1">
         <v>0.81111111111111101</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="3">
         <v>0.80902777777777779</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="1">
         <v>0.82152777777777775</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="3">
         <v>0.81944444444444453</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="1">
         <v>0.83194444444444438</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="3">
         <v>0.82638888888888884</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="1">
         <v>0.84027777777777779</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+      <c r="A57" s="3">
         <v>0.82986111111111105</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="1">
         <v>0.84444444444444444</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="A58" s="3">
         <v>0.83680555555555547</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="1">
         <v>0.85138888888888886</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="3">
         <v>0.84722222222222221</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="1">
         <v>0.8618055555555556</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="3">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="1">
         <v>0.86875000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="A61" s="3">
         <v>0.85763888888888884</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="1">
         <v>0.87291666666666667</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
+      <c r="A62" s="3">
         <v>0.86458333333333337</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="1">
         <v>0.87777777777777777</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="A63" s="3">
         <v>0.87152777777777779</v>
       </c>
       <c r="B63" s="1">
@@ -1081,7 +935,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="14">
+      <c r="A64" s="3">
         <v>0.875</v>
       </c>
       <c r="B64" s="1">
@@ -1089,7 +943,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="A65" s="3">
         <v>0.88194444444444453</v>
       </c>
       <c r="B65" s="1">
@@ -1097,7 +951,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14">
+      <c r="A66" s="3">
         <v>0.88888888888888884</v>
       </c>
       <c r="B66" s="1">
@@ -1105,7 +959,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="A67" s="3">
         <v>0.90625000000000011</v>
       </c>
       <c r="B67" s="1">
@@ -1113,7 +967,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+      <c r="A68" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="B68" s="1">
@@ -1121,7 +975,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="A69" s="3">
         <v>0.92013888888888884</v>
       </c>
       <c r="B69" s="1">
@@ -1129,15 +983,15 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>14</v>
+      <c r="A70" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="A71" s="3">
         <v>0.94097222222222221</v>
       </c>
       <c r="B71" s="1">
@@ -1145,59 +999,57 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="14">
+      <c r="A72" s="3">
         <v>0.95138888888888884</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>16</v>
+      <c r="A73" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="14">
+      <c r="A74" s="3">
         <v>0.97569444444444453</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>4</v>
+      <c r="B74" s="1">
+        <v>0.98819444444444438</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16">
+      <c r="A75" s="3">
         <v>0.97569444444444453</v>
       </c>
-      <c r="B75" s="17">
-        <v>0.98819444444444438</v>
+      <c r="B75" s="1">
+        <v>0.99513888888888891</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+      <c r="A76" s="3">
         <v>0.98263888888888884</v>
       </c>
-      <c r="B76" s="17">
-        <v>0.99513888888888891</v>
+      <c r="B76" s="1">
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17">
-        <v>3.4722222222222224E-2</v>
+      <c r="A77" s="3"/>
+      <c r="B77" s="1">
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="15">
-        <v>5.6250000000000001E-2</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
